--- a/MS/Integrate/From-Tomsk/NO2PhO2SOPh-v1-v4.xlsx
+++ b/MS/Integrate/From-Tomsk/NO2PhO2SOPh-v1-v4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="NO2PhO2SOPh-v1-v4" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t xml:space="preserve"> v1</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x300</t>
   </si>
 </sst>
 </file>
@@ -115,8 +118,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -197,12 +199,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -267,7 +269,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -308,21 +310,6 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.0" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -417,11 +404,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="78146808"/>
-        <c:axId val="59158945"/>
+        <c:axId val="31068477"/>
+        <c:axId val="63924502"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78146808"/>
+        <c:axId val="31068477"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -441,24 +428,28 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59158945"/>
+        <c:crossAx val="63924502"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59158945"/>
+        <c:axId val="63924502"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -488,19 +479,23 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78146808"/>
+        <c:crossAx val="31068477"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -522,20 +517,6 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
@@ -551,7 +532,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -563,18 +544,28 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="ru-RU" sz="1400" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr b="0" lang="ru-RU" sz="1400" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
               <a:t>Chart Title</a:t>
@@ -583,12 +574,6 @@
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -616,21 +601,6 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -719,11 +689,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="49237256"/>
-        <c:axId val="70844258"/>
+        <c:axId val="33000353"/>
+        <c:axId val="93506165"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49237256"/>
+        <c:axId val="33000353"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -753,24 +723,28 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="ru-RU" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70844258"/>
+        <c:crossAx val="93506165"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70844258"/>
+        <c:axId val="93506165"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -800,19 +774,23 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="ru-RU" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49237256"/>
+        <c:crossAx val="33000353"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -847,13 +825,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>167400</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:rowOff>70560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>17640</xdr:colOff>
+      <xdr:colOff>17280</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:rowOff>59760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -861,8 +839,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="482040" y="2181240"/>
-        <a:ext cx="5758920" cy="3228480"/>
+        <a:off x="480960" y="2181600"/>
+        <a:ext cx="5760360" cy="3227760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -875,15 +853,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>335880</xdr:colOff>
+      <xdr:colOff>336240</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>78480</xdr:rowOff>
+      <xdr:rowOff>72720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>768960</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>68760</xdr:rowOff>
+      <xdr:rowOff>61920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -891,8 +869,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6559200" y="2345400"/>
-        <a:ext cx="4519440" cy="2742840"/>
+        <a:off x="6560280" y="2345760"/>
+        <a:ext cx="6708960" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -912,15 +890,15 @@
   </sheetPr>
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R3" activeCellId="0" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="7.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.01"/>
@@ -931,9 +909,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="10.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="10.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="5.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="2.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="18.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="15.84"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1027,7 +1005,7 @@
         <v>10</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1082,8 +1060,16 @@
         <f aca="false">-0.000000000004204*O3*O3+0.000001152341095*O3</f>
         <v>0.0111065717736056</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q3" s="0" t="n">
+        <f aca="false">P3/279.0201</f>
+        <v>3.9805633263E-005</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <f aca="false">Q3*300</f>
+        <v>0.0119416899789</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>60</v>
       </c>
@@ -1135,8 +1121,16 @@
         <f aca="false">-0.000000000004204*O4*O4+0.000001152341095*O4</f>
         <v>0.00781752058924144</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q4" s="0" t="n">
+        <f aca="false">P4/279.0201</f>
+        <v>2.80177685738104E-005</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <f aca="false">Q4*300</f>
+        <v>0.00840533057214312</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>90</v>
       </c>
@@ -1188,8 +1182,16 @@
         <f aca="false">-0.000000000004204*O5*O5+0.000001152341095*O5</f>
         <v>0.00739292643321304</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q5" s="0" t="n">
+        <f aca="false">P5/279.0201</f>
+        <v>2.6496035350905E-005</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <f aca="false">Q5*300</f>
+        <v>0.0079488106052715</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>120</v>
       </c>
@@ -1241,8 +1243,16 @@
         <f aca="false">-0.000000000004204*O6*O6+0.000001152341095*O6</f>
         <v>0.006419607202371</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q6" s="0" t="n">
+        <f aca="false">P6/279.0201</f>
+        <v>2.30076872683043E-005</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <f aca="false">Q6*300</f>
+        <v>0.00690230618049129</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>150</v>
       </c>
@@ -1294,8 +1304,16 @@
         <f aca="false">-0.000000000004204*O7*O7+0.000001152341095*O7</f>
         <v>0.00531972408824572</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q7" s="0" t="n">
+        <f aca="false">P7/279.0201</f>
+        <v>1.90657378742453E-005</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <f aca="false">Q7*300</f>
+        <v>0.00571972136227359</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>180</v>
       </c>
@@ -1347,8 +1365,16 @@
         <f aca="false">-0.000000000004204*O8*O8+0.000001152341095*O8</f>
         <v>0.007310402722494</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q8" s="0" t="n">
+        <f aca="false">P8/279.0201</f>
+        <v>2.6200272749146E-005</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <f aca="false">Q8*300</f>
+        <v>0.0078600818247438</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>240</v>
       </c>
@@ -1400,8 +1426,16 @@
         <f aca="false">-0.000000000004204*O9*O9+0.000001152341095*O9</f>
         <v>0.00739073226913824</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q9" s="0" t="n">
+        <f aca="false">P9/279.0201</f>
+        <v>2.64881715300734E-005</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <f aca="false">Q9*300</f>
+        <v>0.00794645145902202</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>300</v>
       </c>
@@ -1453,8 +1487,16 @@
         <f aca="false">-0.000000000004204*O10*O10+0.000001152341095*O10</f>
         <v>0.0076688665273205</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q10" s="0" t="n">
+        <f aca="false">P10/279.0201</f>
+        <v>2.74849966985192E-005</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <f aca="false">Q10*300</f>
+        <v>0.00824549900955576</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>450</v>
       </c>
@@ -1506,8 +1548,16 @@
         <f aca="false">-0.000000000004204*O11*O11+0.000001152341095*O11</f>
         <v>0.00637070607776005</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q11" s="0" t="n">
+        <f aca="false">P11/279.0201</f>
+        <v>2.28324270465104E-005</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <f aca="false">Q11*300</f>
+        <v>0.00684972811395312</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>600</v>
       </c>
@@ -1559,8 +1609,16 @@
         <f aca="false">-0.000000000004204*O12*O12+0.000001152341095*O12</f>
         <v>0.00700652896514806</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q12" s="0" t="n">
+        <f aca="false">P12/279.0201</f>
+        <v>2.5111197957237E-005</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <f aca="false">Q12*300</f>
+        <v>0.0075333593871711</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>900</v>
       </c>
@@ -1612,8 +1670,13 @@
         <f aca="false">-0.000000000004204*O13*O13+0.000001152341095*O13</f>
         <v>0.00745807777357396</v>
       </c>
-      <c r="R13" s="0" t="s">
-        <v>1</v>
+      <c r="Q13" s="0" t="n">
+        <f aca="false">P13/279.0201</f>
+        <v>2.67295358777879E-005</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <f aca="false">Q13*300</f>
+        <v>0.00801886076333637</v>
       </c>
     </row>
   </sheetData>
@@ -1635,11 +1698,11 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
@@ -1657,8 +1720,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="0" t="n">
-        <f aca="false">-0.000000000004204*A2*A2+0.000001152341095*A2</f>
-        <v>3.456644925E-005</v>
+        <v>3.9805633263E-005</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1666,8 +1728,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="0" t="n">
-        <f aca="false">-0.000000000004204*A3*A3+0.000001152341095*A3</f>
-        <v>6.91253313E-005</v>
+        <v>2.80177685738104E-005</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1675,8 +1736,7 @@
         <v>90</v>
       </c>
       <c r="B4" s="0" t="n">
-        <f aca="false">-0.000000000004204*A4*A4+0.000001152341095*A4</f>
-        <v>0.00010367664615</v>
+        <v>2.6496035350905E-005</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1684,8 +1744,7 @@
         <v>120</v>
       </c>
       <c r="B5" s="0" t="n">
-        <f aca="false">-0.000000000004204*A5*A5+0.000001152341095*A5</f>
-        <v>0.0001382203938</v>
+        <v>2.30076872683043E-005</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1693,8 +1752,7 @@
         <v>150</v>
       </c>
       <c r="B6" s="0" t="n">
-        <f aca="false">-0.000000000004204*A6*A6+0.000001152341095*A6</f>
-        <v>0.00017275657425</v>
+        <v>1.90657378742453E-005</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1702,8 +1760,7 @@
         <v>180</v>
       </c>
       <c r="B7" s="0" t="n">
-        <f aca="false">-0.000000000004204*A7*A7+0.000001152341095*A7</f>
-        <v>0.0002072851875</v>
+        <v>2.6200272749146E-005</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1711,8 +1768,7 @@
         <v>240</v>
       </c>
       <c r="B8" s="0" t="n">
-        <f aca="false">-0.000000000004204*A8*A8+0.000001152341095*A8</f>
-        <v>0.0002763197124</v>
+        <v>2.64881715300734E-005</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1720,8 +1776,7 @@
         <v>300</v>
       </c>
       <c r="B9" s="0" t="n">
-        <f aca="false">-0.000000000004204*A9*A9+0.000001152341095*A9</f>
-        <v>0.0003453239685</v>
+        <v>2.74849966985192E-005</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1729,8 +1784,7 @@
         <v>450</v>
       </c>
       <c r="B10" s="0" t="n">
-        <f aca="false">-0.000000000004204*A10*A10+0.000001152341095*A10</f>
-        <v>0.00051770218275</v>
+        <v>2.28324270465104E-005</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1738,8 +1792,7 @@
         <v>600</v>
       </c>
       <c r="B11" s="0" t="n">
-        <f aca="false">-0.000000000004204*A11*A11+0.000001152341095*A11</f>
-        <v>0.000689891217</v>
+        <v>2.5111197957237E-005</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1747,8 +1800,7 @@
         <v>900</v>
       </c>
       <c r="B12" s="0" t="n">
-        <f aca="false">-0.000000000004204*A12*A12+0.000001152341095*A12</f>
-        <v>0.0010337017455</v>
+        <v>2.67295358777879E-005</v>
       </c>
     </row>
   </sheetData>
